--- a/data/RoperSpreadSheet2.xlsx
+++ b/data/RoperSpreadSheet2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\IST 290\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604CE90-7E97-4278-9916-DB72501EF392}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participantData" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable11" hidden="1">Table1[]</definedName>
     <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable21" hidden="1">Table2[]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,8 +43,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -52,7 +53,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" name="WorksheetConnection_new database.xlsx!Table1" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="WorksheetConnection_new database.xlsx!Table1" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1">
@@ -61,7 +62,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="3" name="WorksheetConnection_new database.xlsx!Table2" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="WorksheetConnection_new database.xlsx!Table2" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2">
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
   <si>
     <t>Last Name</t>
   </si>
@@ -205,12 +206,6 @@
     <t>age calculator</t>
   </si>
   <si>
-    <t xml:space="preserve"> date</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>W- score</t>
   </si>
   <si>
@@ -218,12 +213,102 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>W - Score</t>
+  </si>
+  <si>
+    <t>7s - Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bod </t>
+  </si>
+  <si>
+    <t>dole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">printer </t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>steven</t>
+  </si>
+  <si>
+    <t>universe</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>hadrian</t>
+  </si>
+  <si>
+    <t>blackwater</t>
+  </si>
+  <si>
+    <t>royce</t>
+  </si>
+  <si>
+    <t>melburn</t>
+  </si>
+  <si>
+    <t>bob</t>
+  </si>
+  <si>
+    <t>drew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michael </t>
+  </si>
+  <si>
+    <t>weston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black </t>
+  </si>
+  <si>
+    <t>spy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white </t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green </t>
+  </si>
+  <si>
+    <t>scarf</t>
+  </si>
+  <si>
+    <t>table3</t>
+  </si>
+  <si>
+    <t>table 4</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
@@ -295,7 +380,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     </dxf>
@@ -304,9 +401,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -322,60 +416,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:O38" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="B3:O38"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Last Name"/>
-    <tableColumn id="2" name="First Name"/>
-    <tableColumn id="3" name="DOB" dataDxfId="2"/>
-    <tableColumn id="4" name="age" dataDxfId="1">
-      <calculatedColumnFormula>DATEDIF(D4, NOW(), "Y")</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="B3:R38" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="B3:R38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Last Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="First Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DOB" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="age" dataDxfId="5">
+      <calculatedColumnFormula>IF(ISBLANK(D4), "", (DATEDIF(D4, NOW(), "Y")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Race"/>
-    <tableColumn id="6" name="Gender"/>
-    <tableColumn id="7" name="Address"/>
-    <tableColumn id="8" name="Email Address"/>
-    <tableColumn id="9" name="Phone Number" dataDxfId="3"/>
-    <tableColumn id="14" name="Status" dataDxfId="0"/>
-    <tableColumn id="10" name="PCP"/>
-    <tableColumn id="11" name="Specialist"/>
-    <tableColumn id="12" name="Referral"/>
-    <tableColumn id="13" name="Mailing List"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Race"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Gender"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Address"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Email Address"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phone Number" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Test Date" dataDxfId="3">
+      <calculatedColumnFormula>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="W - Score" dataDxfId="1">
+      <calculatedColumnFormula>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="7s - Score" dataDxfId="0">
+      <calculatedColumnFormula>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Status" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="PCP"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Specialist"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Referral"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Mailing List"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="S4:S32" totalsRowShown="0">
-  <autoFilter ref="S4:S32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="V4:V32" totalsRowShown="0">
+  <autoFilter ref="V4:V32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C3:H30" totalsRowShown="0">
-  <autoFilter ref="C3:H30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="C3:H34" totalsRowShown="0">
+  <autoFilter ref="C3:H34" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="First Name"/>
-    <tableColumn id="2" name="Last Name"/>
-    <tableColumn id="3" name=" date"/>
-    <tableColumn id="4" name="test"/>
-    <tableColumn id="5" name="W- score"/>
-    <tableColumn id="6" name="7-score"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Last Name"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="First Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Test"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="W- score"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="7-score"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:B30" totalsRowShown="0">
-  <autoFilter ref="B2:B30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="B2:B30" totalsRowShown="0">
+  <autoFilter ref="B2:B30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -643,11 +746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,16 +762,21 @@
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="16.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -697,329 +805,830 @@
         <v>8</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E38" ca="1" si="0">DATEDIF(D4, NOW(), "Y")</f>
+    <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" ref="E4:E38" ca="1" si="0">IF(ISBLANK(D4), "", (DATEDIF(D4, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="K4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="3">
+        <f ca="1">DATEDIF(X6, NOW(), "Y")</f>
         <v>118</v>
       </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S5" t="s">
-        <v>13</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V6" s="3">
-        <f ca="1">DATEDIF(U6, NOW(), "Y")</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S7" t="s">
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S8" t="s">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L8" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S9" t="s">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S10" t="s">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L10" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S11" t="s">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S12" t="s">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S13" t="s">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L13" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S14" t="s">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L14" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S15" t="s">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L15" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S16" t="s">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E16" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S17" t="s">
+    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E17" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E18" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S18" t="s">
+    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E18" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L18" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E19" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S19" t="s">
+    <row r="19" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E19" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L19" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E20" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S20" t="s">
+    <row r="20" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E20" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L20" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E21" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S21" t="s">
+    <row r="21" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E22" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S22" t="s">
+    <row r="22" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E22" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L22" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E23" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S23" t="s">
+    <row r="23" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E23" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L23" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E24" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S24" t="s">
+    <row r="24" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E24" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S25" t="s">
+    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K25" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L25" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E26" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S26" t="s">
+    <row r="26" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E26" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E27" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S27" t="s">
+    <row r="27" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E27" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K27" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L27" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S28" t="s">
+    <row r="28" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E28" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K28" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L28" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E29" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S29" t="s">
+    <row r="29" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E29" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E30" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S30" t="s">
+    <row r="30" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E30" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E31" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S31" t="s">
+    <row r="31" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E31" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E32" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="S32" t="s">
+    <row r="32" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E32" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K32" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K33" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K34" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L34" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K35" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L35" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M35" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K36" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L36" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K37" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L37" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M37" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E38" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K38" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[Date]), Table4[[Date]:[7-score]], 1, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L38" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[W- score]), Table4[[Date]:[7-score]], 2, 0)), "N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38" s="4" t="e">
+        <f>IF(MATCH(Table3[[Last Name]:[First Name]], Table4[[Last Name]:[First Name]], 0), (VLOOKUP(MAX(Table4[7-score]), Table4[[Date]:[7-score]], 3, 0)), "N/A")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N38">
-      <formula1>$S$5:$S$32</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q38" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$V$5:$V$32</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1032,8 +1641,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1049,28 +1658,438 @@
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
       <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43210</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43211</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43212</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43213</v>
+      </c>
+      <c r="G7">
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43214</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43215</v>
+      </c>
+      <c r="G9">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
+      <c r="H9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43216</v>
+      </c>
+      <c r="G10">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43217</v>
+      </c>
+      <c r="G11">
+        <v>43</v>
+      </c>
+      <c r="H11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43218</v>
+      </c>
+      <c r="G12">
+        <v>42</v>
+      </c>
+      <c r="H12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1">
+        <v>43219</v>
+      </c>
+      <c r="G13">
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43220</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43221</v>
+      </c>
+      <c r="G15">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43222</v>
+      </c>
+      <c r="G16">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1">
+        <v>43223</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1">
+        <v>43224</v>
+      </c>
+      <c r="G18">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1">
+        <v>43225</v>
+      </c>
+      <c r="G19">
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
+        <v>43226</v>
+      </c>
+      <c r="G20">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>43227</v>
+      </c>
+      <c r="G21">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1">
+        <v>43228</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43229</v>
+      </c>
+      <c r="G23">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1">
+        <v>43230</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1">
+        <v>43231</v>
+      </c>
+      <c r="G25">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="1">
+        <v>43232</v>
+      </c>
+      <c r="G26">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
+      </c>
+      <c r="H27">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1081,7 +2100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:B30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1247,7 +2266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/RoperSpreadSheet2.xlsx
+++ b/data/RoperSpreadSheet2.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\IST 290\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingPin\Desktop\trident classes\Roper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18300083-175D-42CE-9648-8CA6F830320F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8147E7-CAB3-4FED-8A62-318DA240D7E5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participantData" sheetId="1" r:id="rId1"/>
     <sheet name="testScores" sheetId="4" r:id="rId2"/>
     <sheet name="Referralsheet" sheetId="2" r:id="rId3"/>
-    <sheet name="OptInEamils" sheetId="3" r:id="rId4"/>
-    <sheet name="Formulas" sheetId="5" r:id="rId5"/>
+    <sheet name="Current Studies" sheetId="6" r:id="rId4"/>
+    <sheet name="OptInEamils" sheetId="3" r:id="rId5"/>
+    <sheet name="Formulas&amp;Tables" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable11" hidden="1">Table1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable11" hidden="1">Referals[]</definedName>
     <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable21" hidden="1">Table2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Last Name</t>
   </si>
@@ -235,6 +236,72 @@
   </si>
   <si>
     <t>Roper St. Francis Participant Data</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Referals</t>
+  </si>
+  <si>
+    <t>Deseased</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>OptInEmails</t>
+  </si>
+  <si>
+    <t>CRD</t>
+  </si>
+  <si>
+    <t>LMD</t>
+  </si>
+  <si>
+    <t>Current Study</t>
+  </si>
+  <si>
+    <t>Studies</t>
+  </si>
+  <si>
+    <t>ADNI3</t>
+  </si>
+  <si>
+    <t>Novartis Generation 1</t>
+  </si>
+  <si>
+    <t>Novartis Generation 2</t>
+  </si>
+  <si>
+    <t>Neurim</t>
+  </si>
+  <si>
+    <t>SUVN502</t>
+  </si>
+  <si>
+    <t>ADMET2</t>
+  </si>
+  <si>
+    <t>Avanir</t>
+  </si>
+  <si>
+    <t>NIC</t>
   </si>
 </sst>
 </file>
@@ -287,24 +354,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     </dxf>
@@ -340,26 +409,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="B3:R38" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="B3:R38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Main" displayName="Main" ref="B3:X38" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="B3:X38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Last Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="First Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DOB" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="age" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DOB" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="age" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(D4), "", (DATEDIF(D4, NOW(), "Y")))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Race"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Gender"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Address"/>
+    <tableColumn id="20" xr3:uid="{A6CC2B3B-B730-4C77-8E1B-8524D8058490}" name="Address 2"/>
+    <tableColumn id="21" xr3:uid="{96274CA0-21F6-42F8-A6CC-1564219BEB3F}" name="City"/>
+    <tableColumn id="19" xr3:uid="{3564AF9A-9735-4F3E-B265-F58EE3E46F08}" name="State"/>
+    <tableColumn id="22" xr3:uid="{02668A8C-68D9-4CCB-B7C0-A7A59994786C}" name="Postal Code"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Email Address"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phone Number" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Test Date" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="W - Score" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="7s - Score" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Status" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phone Number" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Test Date" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="W - Score" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="7s - Score" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Status" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{3F5E6B97-A5B9-4817-AC85-33BE5E2BCDF7}" name="Deseased" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="PCP"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Specialist"/>
+    <tableColumn id="25" xr3:uid="{98A49C78-82DD-424A-8F17-624EB4D4CC19}" name="Current Study"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Referral"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Mailing List"/>
   </tableColumns>
@@ -368,25 +443,58 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="C3:H34" totalsRowShown="0">
-  <autoFilter ref="C3:H34" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TestScores" displayName="TestScores" ref="C3:K34" totalsRowShown="0">
+  <autoFilter ref="C3:K34" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Last Name"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="First Name"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Test"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="W- score"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="7-score"/>
+    <tableColumn id="7" xr3:uid="{73A63323-73D0-4BD6-B700-273ED418AFD0}" name="CRD"/>
+    <tableColumn id="8" xr3:uid="{8C4C9C6C-D932-4492-83D9-EF8AA3B9594D}" name="LMD"/>
+    <tableColumn id="9" xr3:uid="{19D02257-082F-4200-B27E-1D6D79F59AD8}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="B2:B30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Referals" displayName="Referals" ref="B2:B30" totalsRowShown="0">
   <autoFilter ref="B2:B30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Referals"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{58406E35-D93C-4D3E-88D6-AC79BD500D3A}" name="Studies" displayName="Studies" ref="B2:B11" totalsRowShown="0">
+  <autoFilter ref="B2:B11" xr:uid="{B1FCC2A1-DF48-4F79-8FCB-DB88BAFD76A8}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{FC3B7099-14D8-4512-9583-AF23E8DE88A0}" name="Studies"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{937CA078-BB36-4EC9-8760-8D270CC5FAC5}" name="Emails" displayName="Emails" ref="B2:B32" totalsRowShown="0">
+  <autoFilter ref="B2:B32" xr:uid="{CD5E52FE-0FBA-4585-BB8A-AF0121AEA9E7}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{37155562-77A4-43EE-A29A-0B1862B52782}" name="OptInEmails"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5AD7D3A-236A-42F2-8BAD-957E12CE3E0B}" name="YesNo" displayName="YesNo" ref="G3:G6" totalsRowShown="0">
+  <autoFilter ref="G3:G6" xr:uid="{F59ACE9F-D7BA-45D2-A818-2F906660C99A}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9BE15266-1ADB-4610-9896-1E6F8723D194}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -655,10 +763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Y38"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C15"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,59 +777,73 @@
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
-    <col min="11" max="13" width="16.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="2" customWidth="1"/>
+    <col min="15" max="17" width="16.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="31" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="24" customWidth="1"/>
+    <col min="21" max="22" width="18.7109375" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" customWidth="1"/>
+    <col min="28" max="28" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -743,289 +866,305 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" t="s">
+      <c r="U3" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" t="s">
         <v>11</v>
       </c>
-      <c r="R3" t="s">
+      <c r="X3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="str">
         <f ca="1">IF(ISBLANK(D4), "", (DATEDIF(D4, NOW(), "Y")))</f>
         <v/>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="str">
-        <f t="shared" ref="E4:E38" ca="1" si="0">IF(ISBLANK(D5), "", (DATEDIF(D5, NOW(), "Y")))</f>
-        <v/>
-      </c>
-      <c r="K5"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D5), "", (DATEDIF(D5, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O5"/>
+      <c r="AE5" s="4"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E6" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K6"/>
-      <c r="Y6" s="5"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D6), "", (DATEDIF(D6, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O6"/>
+      <c r="AE6" s="5"/>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D7), "", (DATEDIF(D7, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D8), "", (DATEDIF(D8, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K9"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D9), "", (DATEDIF(D9, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K10"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D10), "", (DATEDIF(D10, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E11" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K11"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D11), "", (DATEDIF(D11, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K12"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D12), "", (DATEDIF(D12, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K13"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D13), "", (DATEDIF(D13, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K14"/>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D14), "", (DATEDIF(D14, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K15"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D15), "", (DATEDIF(D15, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E16" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D16), "", (DATEDIF(D16, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D17), "", (DATEDIF(D17, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D18), "", (DATEDIF(D18, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D19), "", (DATEDIF(D19, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D20), "", (DATEDIF(D20, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D21), "", (DATEDIF(D21, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E22" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D22), "", (DATEDIF(D22, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D23), "", (DATEDIF(D23, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E24" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D24), "", (DATEDIF(D24, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E25" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D25), "", (DATEDIF(D25, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E26" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D26), "", (DATEDIF(D26, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E27" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D27), "", (DATEDIF(D27, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D28), "", (DATEDIF(D28, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D29), "", (DATEDIF(D29, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D30), "", (DATEDIF(D30, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D31), "", (DATEDIF(D31, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E32" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D32), "", (DATEDIF(D32, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D33), "", (DATEDIF(D33, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K34"/>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D34), "", (DATEDIF(D34, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E35" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D35), "", (DATEDIF(D35, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K36"/>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D36), "", (DATEDIF(D36, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+        <f ca="1">IF(ISBLANK(D37), "", (DATEDIF(D37, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E38" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K38"/>
+        <f ca="1">IF(ISBLANK(D38), "", (DATEDIF(D38, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="O38"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:R2"/>
-  </mergeCells>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1033,12 +1172,24 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D75DDE49-0DF0-4E20-9C93-4A048040F42D}">
           <x14:formula1>
             <xm:f>Referralsheet!$B$3:$B$30</xm:f>
           </x14:formula1>
-          <xm:sqref>Q4:Q38</xm:sqref>
+          <xm:sqref>W4:W38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F5948E2-1BF3-4171-99C5-7D3D68F37AD0}">
+          <x14:formula1>
+            <xm:f>'Current Studies'!$B$4:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>V4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C3053FDD-2C11-42FF-B550-EA3C44BA6277}">
+          <x14:formula1>
+            <xm:f>'Formulas&amp;Tables'!$G$5:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>S4:S38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1048,10 +1199,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:H27"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="C2:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H27"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,12 +1216,12 @@
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1088,44 +1240,53 @@
       <c r="H3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
@@ -1171,10 +1332,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1346,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -1197,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="str">
-        <f>Table1[[#All],[Column1]]</f>
+        <f>Referals[[#All],[Referals]]</f>
         <v>A4 AARP Ad</v>
       </c>
     </row>
@@ -1340,42 +1502,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FA51D1-84BF-4F18-8CF3-D76920A1D960}">
+  <dimension ref="B2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E28FDDA-5349-4591-8391-A89BA5844250}">
-  <dimension ref="C3:D4"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="C3:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4">
         <f ca="1">IF(ISBLANK(D4), "", (DATEDIF(D4, NOW(), "Y")))</f>
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/RoperSpreadSheet2.xlsx
+++ b/data/RoperSpreadSheet2.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingPin\Desktop\trident classes\Roper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8147E7-CAB3-4FED-8A62-318DA240D7E5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFF492A1-4AAA-4659-A543-85F72EFA00D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participantData" sheetId="1" r:id="rId1"/>
-    <sheet name="testScores" sheetId="4" r:id="rId2"/>
-    <sheet name="Referralsheet" sheetId="2" r:id="rId3"/>
-    <sheet name="Current Studies" sheetId="6" r:id="rId4"/>
-    <sheet name="OptInEamils" sheetId="3" r:id="rId5"/>
-    <sheet name="Formulas&amp;Tables" sheetId="5" r:id="rId6"/>
+    <sheet name="Symptoms" sheetId="7" r:id="rId2"/>
+    <sheet name="HPOA" sheetId="8" r:id="rId3"/>
+    <sheet name="Medical History" sheetId="9" r:id="rId4"/>
+    <sheet name="testScores" sheetId="4" r:id="rId5"/>
+    <sheet name="Referralsheet" sheetId="2" r:id="rId6"/>
+    <sheet name="Current Studies" sheetId="6" r:id="rId7"/>
+    <sheet name="OptInEamils" sheetId="3" r:id="rId8"/>
+    <sheet name="Formulas&amp;Tables" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable11" hidden="1">Referals[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable21" hidden="1">Table2</definedName>
+    <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable21" hidden="1">Table2[]</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t>Last Name</t>
   </si>
@@ -302,6 +305,120 @@
   </si>
   <si>
     <t>NIC</t>
+  </si>
+  <si>
+    <t>Previous Diagnosis</t>
+  </si>
+  <si>
+    <t>Memory Loss</t>
+  </si>
+  <si>
+    <t>Disrupt life</t>
+  </si>
+  <si>
+    <t>Difficulty planning</t>
+  </si>
+  <si>
+    <t>Difficulty with familiar tasks</t>
+  </si>
+  <si>
+    <t>dificulty woth workds</t>
+  </si>
+  <si>
+    <t>family history</t>
+  </si>
+  <si>
+    <t>Donepezil(Aricept)</t>
+  </si>
+  <si>
+    <t>Menantine (namenda)</t>
+  </si>
+  <si>
+    <t>Start Data</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Start Data2</t>
+  </si>
+  <si>
+    <t>End Date3</t>
+  </si>
+  <si>
+    <t>Start Data22</t>
+  </si>
+  <si>
+    <t>End Date33</t>
+  </si>
+  <si>
+    <t>Start Data23</t>
+  </si>
+  <si>
+    <t>End Date34</t>
+  </si>
+  <si>
+    <t>Start Data24</t>
+  </si>
+  <si>
+    <t>End Date35</t>
+  </si>
+  <si>
+    <t>Rivastigmine (Exelon)</t>
+  </si>
+  <si>
+    <t>Galantamine (Razadyne)</t>
+  </si>
+  <si>
+    <t>Namzaric (Aricept-Namenda Combination</t>
+  </si>
+  <si>
+    <t>HOPA (yes/no)</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Phone2</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>Legally Married</t>
+  </si>
+  <si>
+    <t>Schizophrenia,Bipolar, Major Depressive Disorder</t>
+  </si>
+  <si>
+    <t>Sleep Disorder</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Type of cancer</t>
+  </si>
+  <si>
+    <t>Pacemaker or MRI incompatible Device</t>
+  </si>
+  <si>
+    <t>Drug or alchohol abuse</t>
+  </si>
+  <si>
+    <t>On Going Problems</t>
   </si>
 </sst>
 </file>
@@ -443,6 +560,77 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87437487-833D-4D00-956C-71FDB078D6B3}" name="Table2" displayName="Table2" ref="B2:Y22" totalsRowShown="0">
+  <autoFilter ref="B2:Y22" xr:uid="{0E0BF2B6-BF28-4A91-8D90-93C424E148F4}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{2CD34795-975F-48D2-99AF-CBF8F05D26D2}" name="Last Name"/>
+    <tableColumn id="2" xr3:uid="{148333E3-DC85-4821-9DF3-520DDC8490D6}" name="First Name"/>
+    <tableColumn id="3" xr3:uid="{DDD709C8-E292-4C2C-AE0D-D542E3EE9EE2}" name="Previous Diagnosis"/>
+    <tableColumn id="4" xr3:uid="{338CBEC5-101B-470C-93C4-C7A5F3648141}" name="Memory Loss"/>
+    <tableColumn id="5" xr3:uid="{C171CEE3-5D73-41FB-8E83-6E0A2495758D}" name="Disrupt life"/>
+    <tableColumn id="6" xr3:uid="{DC5EBC26-1197-4D59-81B7-884F3FB63543}" name="Difficulty planning"/>
+    <tableColumn id="7" xr3:uid="{647F0C75-FBE8-4BEA-BB35-EF026EADFAB1}" name="Difficulty with familiar tasks"/>
+    <tableColumn id="8" xr3:uid="{2D559ED6-04F0-4D10-9201-08F9B8875B3A}" name="dificulty woth workds"/>
+    <tableColumn id="9" xr3:uid="{B7CA4BB8-90AE-4DB4-A824-D62A243F4435}" name="family history"/>
+    <tableColumn id="10" xr3:uid="{A31F0E42-6679-49EC-8B2A-7577C2DACCF0}" name="Donepezil(Aricept)"/>
+    <tableColumn id="19" xr3:uid="{3E06DE27-3606-4E42-A9F7-B40A163D9976}" name="Start Data"/>
+    <tableColumn id="18" xr3:uid="{27E49EAD-995F-4E18-92FB-F75E241384EC}" name="End Date"/>
+    <tableColumn id="11" xr3:uid="{C922992F-3FA8-4A80-85F9-7DDDE0D5846B}" name="Menantine (namenda)"/>
+    <tableColumn id="12" xr3:uid="{8A4D886A-ED41-4C5C-99EB-7CD3FADE4B3E}" name="Start Data2"/>
+    <tableColumn id="13" xr3:uid="{811826E9-A3EF-44C8-9C22-4241C8A66D3A}" name="End Date3"/>
+    <tableColumn id="14" xr3:uid="{35B7CBA5-4525-4155-B878-98D3BAC2CBA1}" name="Rivastigmine (Exelon)"/>
+    <tableColumn id="15" xr3:uid="{76C4BAAE-4179-4578-8E07-2F00EF1729DA}" name="Start Data22"/>
+    <tableColumn id="16" xr3:uid="{B81176E1-0CF5-413F-9EAE-D41D35FD6254}" name="End Date33"/>
+    <tableColumn id="17" xr3:uid="{E8D89642-35B9-4DE5-92B7-3A7353D79DF9}" name="Galantamine (Razadyne)"/>
+    <tableColumn id="20" xr3:uid="{B4A5CF13-FE27-4554-9C99-4034DF646426}" name="Start Data23"/>
+    <tableColumn id="21" xr3:uid="{C0CE366C-0357-4824-8D97-331FF30B1F12}" name="End Date34"/>
+    <tableColumn id="22" xr3:uid="{9679A53D-BCA8-41FD-A3E9-C4A7923F60E8}" name="Namzaric (Aricept-Namenda Combination"/>
+    <tableColumn id="23" xr3:uid="{B9176AAC-439B-4D19-A0A7-93AB74D3A564}" name="Start Data24"/>
+    <tableColumn id="24" xr3:uid="{58AAA0CD-0734-46C6-A2EE-A5E8A3FA50BF}" name="End Date35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E40AF23-610D-4EC7-A66A-DA2138575868}" name="Table8" displayName="Table8" ref="B2:L28" totalsRowShown="0">
+  <autoFilter ref="B2:L28" xr:uid="{E1AC3B19-A064-4128-B3BA-141573B0562E}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{FBF39B74-1F93-40DE-B247-52AB3A3914E5}" name="First Name"/>
+    <tableColumn id="22" xr3:uid="{CFB0B9BF-639D-420B-8D0A-DB08BE1B88B3}" name="Last Name"/>
+    <tableColumn id="21" xr3:uid="{53C6F6EF-BF5B-44A2-9690-6D0066EAB7CD}" name="HOPA (yes/no)"/>
+    <tableColumn id="2" xr3:uid="{BA4DFCD6-F28F-48F6-BB67-590727F6ADCD}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{A97C4BEA-38D3-4169-84A9-DE5B8635B5CD}" name="Phone"/>
+    <tableColumn id="4" xr3:uid="{6CD1992B-C087-40A4-AF23-0EF93A276E3C}" name="Legally Married"/>
+    <tableColumn id="5" xr3:uid="{739F4D16-377C-4146-8BC2-1C0F5FC11E16}" name="Spouse"/>
+    <tableColumn id="6" xr3:uid="{A2283406-EBF1-4835-98F1-D23BD90027A7}" name="Phone2"/>
+    <tableColumn id="7" xr3:uid="{8694710A-4060-42A7-AF99-26FFFB6BE625}" name="Children"/>
+    <tableColumn id="8" xr3:uid="{AE960E8E-0B09-4C2D-AC96-BF4A0BEC92D7}" name="Names"/>
+    <tableColumn id="9" xr3:uid="{23FC0A40-5F3F-4AD9-ACAF-B458899FA4EF}" name="Phones"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FB3847B3-1091-4A82-96A1-8E8CFA4034B1}" name="Table9" displayName="Table9" ref="B2:J34" totalsRowShown="0">
+  <autoFilter ref="B2:J34" xr:uid="{F7B214A1-CEAE-4948-A394-EACC13E52596}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{6F3461ED-C8B4-4492-9AC0-599A884F6A9E}" name="First Name"/>
+    <tableColumn id="2" xr3:uid="{74B815AD-B6BC-43FE-B0E8-6E611995081D}" name="Last Name"/>
+    <tableColumn id="3" xr3:uid="{C637D2BD-1710-4FA7-8DE9-D9160961B3C0}" name="Schizophrenia,Bipolar, Major Depressive Disorder"/>
+    <tableColumn id="4" xr3:uid="{F24F38A4-5B18-42ED-B871-877809A01F24}" name="Sleep Disorder"/>
+    <tableColumn id="5" xr3:uid="{2839D78C-83B8-45AE-9013-C309B842DD56}" name="Cancer"/>
+    <tableColumn id="6" xr3:uid="{D7D362E0-B93D-4173-9D1B-6F713520656D}" name="Type of cancer"/>
+    <tableColumn id="7" xr3:uid="{C6EF817D-0DAC-49B7-AEDE-9536F850C4A0}" name="Pacemaker or MRI incompatible Device"/>
+    <tableColumn id="8" xr3:uid="{851BEC84-1DFC-4DB7-A03A-5B9805517E87}" name="Drug or alchohol abuse"/>
+    <tableColumn id="9" xr3:uid="{7D4FA164-786F-42B5-9FC7-3DAC1682C029}" name="On Going Problems"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TestScores" displayName="TestScores" ref="C3:K34" totalsRowShown="0">
   <autoFilter ref="C3:K34" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="9">
@@ -460,7 +648,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Referals" displayName="Referals" ref="B2:B30" totalsRowShown="0">
   <autoFilter ref="B2:B30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
@@ -470,7 +658,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{58406E35-D93C-4D3E-88D6-AC79BD500D3A}" name="Studies" displayName="Studies" ref="B2:B11" totalsRowShown="0">
   <autoFilter ref="B2:B11" xr:uid="{B1FCC2A1-DF48-4F79-8FCB-DB88BAFD76A8}"/>
   <tableColumns count="1">
@@ -480,7 +668,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{937CA078-BB36-4EC9-8760-8D270CC5FAC5}" name="Emails" displayName="Emails" ref="B2:B32" totalsRowShown="0">
   <autoFilter ref="B2:B32" xr:uid="{CD5E52FE-0FBA-4585-BB8A-AF0121AEA9E7}"/>
   <tableColumns count="1">
@@ -490,7 +678,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5AD7D3A-236A-42F2-8BAD-957E12CE3E0B}" name="YesNo" displayName="YesNo" ref="G3:G6" totalsRowShown="0">
   <autoFilter ref="G3:G6" xr:uid="{F59ACE9F-D7BA-45D2-A818-2F906660C99A}"/>
   <tableColumns count="1">
@@ -916,7 +1104,7 @@
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D4), "", (DATEDIF(D4, NOW(), "Y")))</f>
+        <f t="shared" ref="E4:E38" ca="1" si="0">IF(ISBLANK(D4), "", (DATEDIF(D4, NOW(), "Y")))</f>
         <v/>
       </c>
       <c r="O4"/>
@@ -925,7 +1113,7 @@
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D5), "", (DATEDIF(D5, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O5"/>
@@ -933,7 +1121,7 @@
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E6" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D6), "", (DATEDIF(D6, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O6"/>
@@ -941,224 +1129,224 @@
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D7), "", (DATEDIF(D7, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O7"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D8), "", (DATEDIF(D8, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O8"/>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D9), "", (DATEDIF(D9, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O9"/>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D10), "", (DATEDIF(D10, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O10"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E11" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D11), "", (DATEDIF(D11, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O11"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D12), "", (DATEDIF(D12, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O12"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D13), "", (DATEDIF(D13, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O13"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D14), "", (DATEDIF(D14, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O14"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D15), "", (DATEDIF(D15, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O15"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E16" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D16), "", (DATEDIF(D16, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O16"/>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D17), "", (DATEDIF(D17, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O17"/>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D18), "", (DATEDIF(D18, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O18"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D19), "", (DATEDIF(D19, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O19"/>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D20), "", (DATEDIF(D20, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O20"/>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D21), "", (DATEDIF(D21, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O21"/>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E22" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D22), "", (DATEDIF(D22, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O22"/>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D23), "", (DATEDIF(D23, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O23"/>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E24" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D24), "", (DATEDIF(D24, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O24"/>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E25" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D25), "", (DATEDIF(D25, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O25"/>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E26" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D26), "", (DATEDIF(D26, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O26"/>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E27" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D27), "", (DATEDIF(D27, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O27"/>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D28), "", (DATEDIF(D28, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O28"/>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D29), "", (DATEDIF(D29, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O29"/>
     </row>
     <row r="30" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D30), "", (DATEDIF(D30, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O30"/>
     </row>
     <row r="31" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D31), "", (DATEDIF(D31, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O31"/>
     </row>
     <row r="32" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E32" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D32), "", (DATEDIF(D32, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O32"/>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D33), "", (DATEDIF(D33, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O33"/>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D34), "", (DATEDIF(D34, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O34"/>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E35" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D35), "", (DATEDIF(D35, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O35"/>
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D36), "", (DATEDIF(D36, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O36"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D37), "", (DATEDIF(D37, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O37"/>
     </row>
     <row r="38" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E38" s="3" t="str">
-        <f ca="1">IF(ISBLANK(D38), "", (DATEDIF(D38, NOW(), "Y")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="O38"/>
@@ -1198,11 +1386,257 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92453969-76DE-496C-810D-64CBD3ABA112}">
+  <dimension ref="B2:Y2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" customWidth="1"/>
+    <col min="14" max="15" width="12" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23911693-D5E4-490C-9EBD-3ADA45B46D19}">
+          <x14:formula1>
+            <xm:f>'Formulas&amp;Tables'!$G$4:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D22 K3:K22 N3:N22 Q3:Q22 T3:T22 W3:W22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB75606E-25D7-4AD6-8758-1B31735D26A0}">
+  <dimension ref="B2:L2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="12" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{18BCF577-79B0-4309-8F37-A4292B5874E1}">
+          <x14:formula1>
+            <xm:f>'Formulas&amp;Tables'!$G$4:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D28 J3:J28 G3:G28</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0475754B-9239-44D6-90D5-5F9162FAF643}">
+  <dimension ref="B2:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C2:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1330,7 +1764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:D30"/>
@@ -1501,7 +1935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FA51D1-84BF-4F18-8CF3-D76920A1D960}">
   <dimension ref="B2:B11"/>
   <sheetViews>
@@ -1567,7 +2001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2"/>
@@ -1594,12 +2028,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E28FDDA-5349-4591-8391-A89BA5844250}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C3:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>

--- a/data/RoperSpreadSheet2.xlsx
+++ b/data/RoperSpreadSheet2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingPin\Desktop\trident classes\Roper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFF492A1-4AAA-4659-A543-85F72EFA00D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB48FA-AC00-477D-B924-78AEEAC0084F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participantData" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
   <si>
     <t>Last Name</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Age calculator</t>
-  </si>
-  <si>
     <t>Roper St. Francis Participant Data</t>
   </si>
   <si>
@@ -419,6 +416,12 @@
   </si>
   <si>
     <t>On Going Problems</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Memory Loss Date</t>
   </si>
 </sst>
 </file>
@@ -560,18 +563,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87437487-833D-4D00-956C-71FDB078D6B3}" name="Table2" displayName="Table2" ref="B2:Y22" totalsRowShown="0">
-  <autoFilter ref="B2:Y22" xr:uid="{0E0BF2B6-BF28-4A91-8D90-93C424E148F4}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87437487-833D-4D00-956C-71FDB078D6B3}" name="Table2" displayName="Table2" ref="B2:AA22" totalsRowShown="0">
+  <autoFilter ref="B2:AA22" xr:uid="{0E0BF2B6-BF28-4A91-8D90-93C424E148F4}"/>
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{2CD34795-975F-48D2-99AF-CBF8F05D26D2}" name="Last Name"/>
     <tableColumn id="2" xr3:uid="{148333E3-DC85-4821-9DF3-520DDC8490D6}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{DDD709C8-E292-4C2C-AE0D-D542E3EE9EE2}" name="Previous Diagnosis"/>
     <tableColumn id="4" xr3:uid="{338CBEC5-101B-470C-93C4-C7A5F3648141}" name="Memory Loss"/>
+    <tableColumn id="28" xr3:uid="{34621527-CE68-4682-89AD-3F1B912A43EF}" name="Memory Loss Date"/>
     <tableColumn id="5" xr3:uid="{C171CEE3-5D73-41FB-8E83-6E0A2495758D}" name="Disrupt life"/>
     <tableColumn id="6" xr3:uid="{DC5EBC26-1197-4D59-81B7-884F3FB63543}" name="Difficulty planning"/>
     <tableColumn id="7" xr3:uid="{647F0C75-FBE8-4BEA-BB35-EF026EADFAB1}" name="Difficulty with familiar tasks"/>
     <tableColumn id="8" xr3:uid="{2D559ED6-04F0-4D10-9201-08F9B8875B3A}" name="dificulty woth workds"/>
     <tableColumn id="9" xr3:uid="{B7CA4BB8-90AE-4DB4-A824-D62A243F4435}" name="family history"/>
+    <tableColumn id="26" xr3:uid="{4786CA4F-EE0B-49E8-A559-EB3B0F8030F0}" name="Relationship"/>
     <tableColumn id="10" xr3:uid="{A31F0E42-6679-49EC-8B2A-7577C2DACCF0}" name="Donepezil(Aricept)"/>
     <tableColumn id="19" xr3:uid="{3E06DE27-3606-4E42-A9F7-B40A163D9976}" name="Start Data"/>
     <tableColumn id="18" xr3:uid="{27E49EAD-995F-4E18-92FB-F75E241384EC}" name="End Date"/>
@@ -981,7 +986,7 @@
   <sheetData>
     <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1054,16 +1059,16 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
@@ -1084,7 +1089,7 @@
         <v>44</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
         <v>9</v>
@@ -1093,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="V3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W3" t="s">
         <v>11</v>
@@ -1387,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92453969-76DE-496C-810D-64CBD3ABA112}">
-  <dimension ref="B2:Y2"/>
+  <dimension ref="B2:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,19 +1404,21 @@
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" customWidth="1"/>
-    <col min="14" max="15" width="12" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="14" width="12" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1419,70 +1426,76 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>77</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="s">
         <v>81</v>
-      </c>
-      <c r="K2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" t="s">
-        <v>85</v>
       </c>
       <c r="N2" t="s">
         <v>83</v>
       </c>
       <c r="O2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
         <v>86</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" t="s">
         <v>94</v>
       </c>
-      <c r="R2" t="s">
-        <v>88</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" t="s">
         <v>95</v>
       </c>
-      <c r="U2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>91</v>
       </c>
-      <c r="W2" t="s">
-        <v>96</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>92</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1510,7 @@
           <x14:formula1>
             <xm:f>'Formulas&amp;Tables'!$G$4:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D22 K3:K22 N3:N22 Q3:Q22 T3:T22 W3:W22</xm:sqref>
+          <xm:sqref>D3:D22 M3:M22 P3:P22 S3:S22 V3:V22 Y3:Y22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1526,31 +1539,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>100</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>101</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>102</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>103</v>
-      </c>
-      <c r="L2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1591,7 @@
   <dimension ref="B2:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N1048576"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,25 +1615,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>109</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>111</v>
-      </c>
-      <c r="J2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +1649,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1675,13 +1688,13 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
         <v>63</v>
       </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
@@ -1770,7 +1783,7 @@
   <dimension ref="B2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1793,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -1950,47 +1963,47 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2030,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2034,34 +2047,27 @@
   <dimension ref="C3:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
       <c r="G3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="D4">
-        <f ca="1">IF(ISBLANK(D4), "", (DATEDIF(D4, NOW(), "Y")))</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/RoperSpreadSheet2.xlsx
+++ b/data/RoperSpreadSheet2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingPin\Desktop\trident classes\Roper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB48FA-AC00-477D-B924-78AEEAC0084F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B12103B-FBFD-4961-B239-20FD7287AD87}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participantData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable11" hidden="1">Referals[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable21" hidden="1">Table2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable21" hidden="1">Symptoms!$A$1:$AE$21</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="117">
   <si>
     <t>Last Name</t>
   </si>
@@ -226,9 +226,6 @@
     <t>7s - Score</t>
   </si>
   <si>
-    <t>table 4</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -313,54 +310,18 @@
     <t>Disrupt life</t>
   </si>
   <si>
-    <t>Difficulty planning</t>
-  </si>
-  <si>
-    <t>Difficulty with familiar tasks</t>
-  </si>
-  <si>
-    <t>dificulty woth workds</t>
-  </si>
-  <si>
-    <t>family history</t>
-  </si>
-  <si>
     <t>Donepezil(Aricept)</t>
   </si>
   <si>
     <t>Menantine (namenda)</t>
   </si>
   <si>
-    <t>Start Data</t>
-  </si>
-  <si>
     <t>End Date</t>
   </si>
   <si>
-    <t>Start Data2</t>
-  </si>
-  <si>
     <t>End Date3</t>
   </si>
   <si>
-    <t>Start Data22</t>
-  </si>
-  <si>
-    <t>End Date33</t>
-  </si>
-  <si>
-    <t>Start Data23</t>
-  </si>
-  <si>
-    <t>End Date34</t>
-  </si>
-  <si>
-    <t>Start Data24</t>
-  </si>
-  <si>
-    <t>End Date35</t>
-  </si>
-  <si>
     <t>Rivastigmine (Exelon)</t>
   </si>
   <si>
@@ -422,6 +383,54 @@
   </si>
   <si>
     <t>Memory Loss Date</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Start Date2</t>
+  </si>
+  <si>
+    <t>Start Date3</t>
+  </si>
+  <si>
+    <t>Start Date4</t>
+  </si>
+  <si>
+    <t>Start Date5</t>
+  </si>
+  <si>
+    <t>End Date2</t>
+  </si>
+  <si>
+    <t>End Date4</t>
+  </si>
+  <si>
+    <t>End Date5</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Clinician</t>
+  </si>
+  <si>
+    <t>Date of Diagnosis</t>
+  </si>
+  <si>
+    <t>Related Symptoms</t>
+  </si>
+  <si>
+    <t>Difficulty Planning</t>
+  </si>
+  <si>
+    <t>Difficulty with Familiar Tasks</t>
+  </si>
+  <si>
+    <t>Dificulty With Workds</t>
+  </si>
+  <si>
+    <t>Family History</t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +456,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,8 +478,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -470,11 +499,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -486,6 +583,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,14 +641,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Main" displayName="Main" ref="B3:X38" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="B3:X38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Main" displayName="Main" ref="A3:W38" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="A3:W38" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Last Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DOB" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="age" dataDxfId="6">
-      <calculatedColumnFormula>IF(ISBLANK(D4), "", (DATEDIF(D4, NOW(), "Y")))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISBLANK(C4), "", (DATEDIF(C4, NOW(), "Y")))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Race"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Gender"/>
@@ -563,43 +675,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87437487-833D-4D00-956C-71FDB078D6B3}" name="Table2" displayName="Table2" ref="B2:AA22" totalsRowShown="0">
-  <autoFilter ref="B2:AA22" xr:uid="{0E0BF2B6-BF28-4A91-8D90-93C424E148F4}"/>
-  <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{2CD34795-975F-48D2-99AF-CBF8F05D26D2}" name="Last Name"/>
-    <tableColumn id="2" xr3:uid="{148333E3-DC85-4821-9DF3-520DDC8490D6}" name="First Name"/>
-    <tableColumn id="3" xr3:uid="{DDD709C8-E292-4C2C-AE0D-D542E3EE9EE2}" name="Previous Diagnosis"/>
-    <tableColumn id="4" xr3:uid="{338CBEC5-101B-470C-93C4-C7A5F3648141}" name="Memory Loss"/>
-    <tableColumn id="28" xr3:uid="{34621527-CE68-4682-89AD-3F1B912A43EF}" name="Memory Loss Date"/>
-    <tableColumn id="5" xr3:uid="{C171CEE3-5D73-41FB-8E83-6E0A2495758D}" name="Disrupt life"/>
-    <tableColumn id="6" xr3:uid="{DC5EBC26-1197-4D59-81B7-884F3FB63543}" name="Difficulty planning"/>
-    <tableColumn id="7" xr3:uid="{647F0C75-FBE8-4BEA-BB35-EF026EADFAB1}" name="Difficulty with familiar tasks"/>
-    <tableColumn id="8" xr3:uid="{2D559ED6-04F0-4D10-9201-08F9B8875B3A}" name="dificulty woth workds"/>
-    <tableColumn id="9" xr3:uid="{B7CA4BB8-90AE-4DB4-A824-D62A243F4435}" name="family history"/>
-    <tableColumn id="26" xr3:uid="{4786CA4F-EE0B-49E8-A559-EB3B0F8030F0}" name="Relationship"/>
-    <tableColumn id="10" xr3:uid="{A31F0E42-6679-49EC-8B2A-7577C2DACCF0}" name="Donepezil(Aricept)"/>
-    <tableColumn id="19" xr3:uid="{3E06DE27-3606-4E42-A9F7-B40A163D9976}" name="Start Data"/>
-    <tableColumn id="18" xr3:uid="{27E49EAD-995F-4E18-92FB-F75E241384EC}" name="End Date"/>
-    <tableColumn id="11" xr3:uid="{C922992F-3FA8-4A80-85F9-7DDDE0D5846B}" name="Menantine (namenda)"/>
-    <tableColumn id="12" xr3:uid="{8A4D886A-ED41-4C5C-99EB-7CD3FADE4B3E}" name="Start Data2"/>
-    <tableColumn id="13" xr3:uid="{811826E9-A3EF-44C8-9C22-4241C8A66D3A}" name="End Date3"/>
-    <tableColumn id="14" xr3:uid="{35B7CBA5-4525-4155-B878-98D3BAC2CBA1}" name="Rivastigmine (Exelon)"/>
-    <tableColumn id="15" xr3:uid="{76C4BAAE-4179-4578-8E07-2F00EF1729DA}" name="Start Data22"/>
-    <tableColumn id="16" xr3:uid="{B81176E1-0CF5-413F-9EAE-D41D35FD6254}" name="End Date33"/>
-    <tableColumn id="17" xr3:uid="{E8D89642-35B9-4DE5-92B7-3A7353D79DF9}" name="Galantamine (Razadyne)"/>
-    <tableColumn id="20" xr3:uid="{B4A5CF13-FE27-4554-9C99-4034DF646426}" name="Start Data23"/>
-    <tableColumn id="21" xr3:uid="{C0CE366C-0357-4824-8D97-331FF30B1F12}" name="End Date34"/>
-    <tableColumn id="22" xr3:uid="{9679A53D-BCA8-41FD-A3E9-C4A7923F60E8}" name="Namzaric (Aricept-Namenda Combination"/>
-    <tableColumn id="23" xr3:uid="{B9176AAC-439B-4D19-A0A7-93AB74D3A564}" name="Start Data24"/>
-    <tableColumn id="24" xr3:uid="{58AAA0CD-0734-46C6-A2EE-A5E8A3FA50BF}" name="End Date35"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E40AF23-610D-4EC7-A66A-DA2138575868}" name="Table8" displayName="Table8" ref="B2:L28" totalsRowShown="0">
-  <autoFilter ref="B2:L28" xr:uid="{E1AC3B19-A064-4128-B3BA-141573B0562E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E40AF23-610D-4EC7-A66A-DA2138575868}" name="Table8" displayName="Table8" ref="A1:K27" totalsRowShown="0">
+  <autoFilter ref="A1:K27" xr:uid="{E1AC3B19-A064-4128-B3BA-141573B0562E}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{FBF39B74-1F93-40DE-B247-52AB3A3914E5}" name="First Name"/>
     <tableColumn id="22" xr3:uid="{CFB0B9BF-639D-420B-8D0A-DB08BE1B88B3}" name="Last Name"/>
@@ -617,9 +694,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FB3847B3-1091-4A82-96A1-8E8CFA4034B1}" name="Table9" displayName="Table9" ref="B2:J34" totalsRowShown="0">
-  <autoFilter ref="B2:J34" xr:uid="{F7B214A1-CEAE-4948-A394-EACC13E52596}"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FB3847B3-1091-4A82-96A1-8E8CFA4034B1}" name="Table9" displayName="Table9" ref="A1:I33" totalsRowShown="0">
+  <autoFilter ref="A1:I33" xr:uid="{F7B214A1-CEAE-4948-A394-EACC13E52596}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{6F3461ED-C8B4-4492-9AC0-599A884F6A9E}" name="First Name"/>
     <tableColumn id="2" xr3:uid="{74B815AD-B6BC-43FE-B0E8-6E611995081D}" name="Last Name"/>
@@ -635,9 +712,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TestScores" displayName="TestScores" ref="C3:K34" totalsRowShown="0">
-  <autoFilter ref="C3:K34" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TestScores" displayName="TestScores" ref="A1:I32" totalsRowShown="0">
+  <autoFilter ref="A1:I32" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Last Name"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="First Name"/>
@@ -653,7 +730,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Referals" displayName="Referals" ref="B2:B30" totalsRowShown="0">
   <autoFilter ref="B2:B30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
@@ -663,7 +740,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{58406E35-D93C-4D3E-88D6-AC79BD500D3A}" name="Studies" displayName="Studies" ref="B2:B11" totalsRowShown="0">
   <autoFilter ref="B2:B11" xr:uid="{B1FCC2A1-DF48-4F79-8FCB-DB88BAFD76A8}"/>
   <tableColumns count="1">
@@ -673,7 +750,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{937CA078-BB36-4EC9-8760-8D270CC5FAC5}" name="Emails" displayName="Emails" ref="B2:B32" totalsRowShown="0">
   <autoFilter ref="B2:B32" xr:uid="{CD5E52FE-0FBA-4585-BB8A-AF0121AEA9E7}"/>
   <tableColumns count="1">
@@ -683,7 +760,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C5AD7D3A-236A-42F2-8BAD-957E12CE3E0B}" name="YesNo" displayName="YesNo" ref="G3:G6" totalsRowShown="0">
   <autoFilter ref="G3:G6" xr:uid="{F59ACE9F-D7BA-45D2-A818-2F906660C99A}"/>
   <tableColumns count="1">
@@ -957,37 +1034,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AE38"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="12" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="2" customWidth="1"/>
-    <col min="15" max="17" width="16.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="31" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="24" customWidth="1"/>
-    <col min="21" max="22" width="18.7109375" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" customWidth="1"/>
-    <col min="28" max="28" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="2" customWidth="1"/>
+    <col min="14" max="16" width="16.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="31" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="20" max="21" width="18.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" customWidth="1"/>
+    <col min="23" max="23" width="20.42578125" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="6" t="s">
-        <v>51</v>
-      </c>
+    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -1009,9 +1087,9 @@
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-    </row>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1034,29 +1112,31 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
         <v>53</v>
@@ -1068,293 +1148,290 @@
         <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
         <v>4</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="N3" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
       </c>
       <c r="T3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U3" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="V3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="W3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="str">
-        <f t="shared" ref="E4:E38" ca="1" si="0">IF(ISBLANK(D4), "", (DATEDIF(D4, NOW(), "Y")))</f>
-        <v/>
-      </c>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="str">
+        <f t="shared" ref="D4:D38" ca="1" si="0">IF(ISBLANK(C4), "", (DATEDIF(C4, NOW(), "Y")))</f>
+        <v/>
+      </c>
+      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E5" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O5"/>
-      <c r="AE5" s="4"/>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E6" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O6"/>
-      <c r="AE6" s="5"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E7" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E8" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O8"/>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E9" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E10" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O10"/>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E11" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O11"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E12" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O12"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E13" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O13"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E14" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E15" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E16" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O16"/>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O17"/>
-    </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O18"/>
-    </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O19"/>
-    </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O20"/>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O21"/>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E30" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E31" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E32" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E36" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O37"/>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E38" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O38"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N5"/>
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N6"/>
+      <c r="AD6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N38"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1370,19 +1447,19 @@
           <x14:formula1>
             <xm:f>Referralsheet!$B$3:$B$30</xm:f>
           </x14:formula1>
-          <xm:sqref>W4:W38</xm:sqref>
+          <xm:sqref>V4:V38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F5948E2-1BF3-4171-99C5-7D3D68F37AD0}">
           <x14:formula1>
             <xm:f>'Current Studies'!$B$4:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>V4</xm:sqref>
+          <xm:sqref>U4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C3053FDD-2C11-42FF-B550-EA3C44BA6277}">
           <x14:formula1>
             <xm:f>'Formulas&amp;Tables'!$G$5:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S4:S38</xm:sqref>
+          <xm:sqref>R4:R38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1392,117 +1469,888 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92453969-76DE-496C-810D-64CBD3ABA112}">
-  <dimension ref="B2:AA2"/>
+  <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="14" width="12" customWidth="1"/>
-    <col min="16" max="17" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="18" width="12" customWidth="1"/>
+    <col min="20" max="21" width="12" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I2" t="s">
+      <c r="U1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="20"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="23"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="20"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="23"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="20"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="23"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="20"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="23"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="20"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="23"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="20"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="23"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="20"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="23"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="20"/>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="23"/>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="20"/>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="23"/>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="20"/>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="14"/>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="T23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL23" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AM23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO23" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AP23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="AQ23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="N2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="AT23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2" t="s">
-        <v>87</v>
-      </c>
-      <c r="U2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>92</v>
+      <c r="AW23" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX23" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1510,7 +2358,7 @@
           <x14:formula1>
             <xm:f>'Formulas&amp;Tables'!$G$4:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D22 M3:M22 P3:P22 S3:S22 V3:V22 Y3:Y22</xm:sqref>
+          <xm:sqref>H2:H21 Q2:Q21 T2:T21 W2:W21 Z2:Z21 AC2:AC21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1520,50 +2368,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB75606E-25D7-4AD6-8758-1B31735D26A0}">
-  <dimension ref="B2:L2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="12" width="11" customWidth="1"/>
+    <col min="2" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" t="s">
-        <v>103</v>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +2426,7 @@
           <x14:formula1>
             <xm:f>'Formulas&amp;Tables'!$G$4:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D28 J3:J28 G3:G28</xm:sqref>
+          <xm:sqref>C2:C27 I2:I27 F2:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1588,52 +2436,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0475754B-9239-44D6-90D5-5F9162FAF643}">
-  <dimension ref="B2:J2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" t="s">
-        <v>111</v>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1647,127 +2495,122 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="C2:K27"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1793,7 +2636,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -1963,47 +2806,47 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2873,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2062,12 +2905,12 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/RoperSpreadSheet2.xlsx
+++ b/data/RoperSpreadSheet2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingPin\Desktop\trident classes\Roper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E32E9B-0B65-485A-91B5-BD95E0A6EB6C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F9A398-B6FA-4AD0-AAF1-EF25ABAFF065}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable11" hidden="1">Referals[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable21" hidden="1">Symptoms!$A$1:$AF$21</definedName>
+    <definedName name="_xlcn.WorksheetConnection_newdatabase.xlsxTable21" hidden="1">Symptoms!$A$1:$AE$21</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -602,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -626,11 +626,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -638,17 +635,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -687,15 +693,6 @@
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
@@ -767,20 +764,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E40AF23-610D-4EC7-A66A-DA2138575868}" name="Table8" displayName="Table8" ref="B1:L2" insertRow="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6E40AF23-610D-4EC7-A66A-DA2138575868}" name="Table8" displayName="Table8" ref="B1:L2" insertRow="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B1:L2" xr:uid="{E1AC3B19-A064-4128-B3BA-141573B0562E}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FBF39B74-1F93-40DE-B247-52AB3A3914E5}" name="First Name" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{CFB0B9BF-639D-420B-8D0A-DB08BE1B88B3}" name="Last Name" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{53C6F6EF-BF5B-44A2-9690-6D0066EAB7CD}" name="HOPA (yes/no)" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{BA4DFCD6-F28F-48F6-BB67-590727F6ADCD}" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A97C4BEA-38D3-4169-84A9-DE5B8635B5CD}" name="Phone" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6CD1992B-C087-40A4-AF23-0EF93A276E3C}" name="Legally Married" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{739F4D16-377C-4146-8BC2-1C0F5FC11E16}" name="Spouse" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{A2283406-EBF1-4835-98F1-D23BD90027A7}" name="Phone2" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{8694710A-4060-42A7-AF99-26FFFB6BE625}" name="Children" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{AE960E8E-0B09-4C2D-AC96-BF4A0BEC92D7}" name="Names" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{23FC0A40-5F3F-4AD9-ACAF-B458899FA4EF}" name="Phones" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FBF39B74-1F93-40DE-B247-52AB3A3914E5}" name="First Name" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{CFB0B9BF-639D-420B-8D0A-DB08BE1B88B3}" name="Last Name" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{53C6F6EF-BF5B-44A2-9690-6D0066EAB7CD}" name="HOPA (yes/no)" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BA4DFCD6-F28F-48F6-BB67-590727F6ADCD}" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{A97C4BEA-38D3-4169-84A9-DE5B8635B5CD}" name="Phone" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6CD1992B-C087-40A4-AF23-0EF93A276E3C}" name="Legally Married" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{739F4D16-377C-4146-8BC2-1C0F5FC11E16}" name="Spouse" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A2283406-EBF1-4835-98F1-D23BD90027A7}" name="Phone2" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{8694710A-4060-42A7-AF99-26FFFB6BE625}" name="Children" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{AE960E8E-0B09-4C2D-AC96-BF4A0BEC92D7}" name="Names" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{23FC0A40-5F3F-4AD9-ACAF-B458899FA4EF}" name="Phones" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,10 +859,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6507694-7557-417B-B4DB-1DA6D4E6068A}" name="Table2" displayName="Table2" ref="I3:I9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6507694-7557-417B-B4DB-1DA6D4E6068A}" name="Table2" displayName="Table2" ref="I3:I9" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="I3:I9" xr:uid="{3F260F12-6EE6-4536-8716-67E20DC354ED}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7D10C7DD-3FEF-42B2-8A67-05C6ED6072C5}" name="Column1" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{7D10C7DD-3FEF-42B2-8A67-05C6ED6072C5}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1137,8 +1134,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AE6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1334,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1421,60 +1418,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" t="s">
         <v>108</v>
       </c>
@@ -1499,14 +1496,14 @@
       <c r="L2" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M3" s="8"/>
@@ -1523,6 +1520,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="T1:T2"/>
@@ -1531,13 +1535,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1557,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92453969-76DE-496C-810D-64CBD3ABA112}">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,14 +1577,19 @@
     <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="18" width="12" customWidth="1"/>
-    <col min="20" max="21" width="12" customWidth="1"/>
-    <col min="25" max="25" width="12" customWidth="1"/>
-    <col min="28" max="28" width="12" customWidth="1"/>
-    <col min="31" max="31" width="12" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="23" max="23" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="26" max="26" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="29" max="29" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1654,36 +1656,35 @@
       <c r="V1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="26"/>
+      <c r="W1" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="X1" s="13" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="Y1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AE1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AD1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1706,7 +1707,7 @@
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
-      <c r="W2" s="27"/>
+      <c r="W2" s="16"/>
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
@@ -1714,10 +1715,9 @@
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
       <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="17"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE2" s="17"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1740,7 +1740,7 @@
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
-      <c r="W3" s="27"/>
+      <c r="W3" s="19"/>
       <c r="X3" s="19"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
@@ -1748,10 +1748,9 @@
       <c r="AB3" s="19"/>
       <c r="AC3" s="19"/>
       <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="20"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE3" s="20"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1774,7 +1773,7 @@
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
-      <c r="W4" s="27"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
@@ -1782,10 +1781,9 @@
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="17"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE4" s="17"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1808,7 +1806,7 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
-      <c r="W5" s="27"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
@@ -1816,10 +1814,9 @@
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="20"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE5" s="20"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -1842,7 +1839,7 @@
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
-      <c r="W6" s="27"/>
+      <c r="W6" s="16"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
@@ -1850,10 +1847,9 @@
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="17"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE6" s="17"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -1876,7 +1872,7 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
-      <c r="W7" s="27"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
@@ -1884,10 +1880,9 @@
       <c r="AB7" s="19"/>
       <c r="AC7" s="19"/>
       <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="20"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE7" s="20"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -1910,7 +1905,7 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="27"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
@@ -1918,10 +1913,9 @@
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="17"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE8" s="17"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -1944,7 +1938,7 @@
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
-      <c r="W9" s="27"/>
+      <c r="W9" s="19"/>
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
@@ -1952,10 +1946,9 @@
       <c r="AB9" s="19"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="20"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE9" s="20"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1978,7 +1971,7 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="27"/>
+      <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
@@ -1986,10 +1979,9 @@
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="17"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE10" s="17"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -2012,7 +2004,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
-      <c r="W11" s="27"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
@@ -2020,10 +2012,9 @@
       <c r="AB11" s="19"/>
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="20"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE11" s="20"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -2046,7 +2037,7 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="27"/>
+      <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
@@ -2054,10 +2045,9 @@
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="17"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE12" s="17"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -2080,7 +2070,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
-      <c r="W13" s="27"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
@@ -2088,10 +2078,9 @@
       <c r="AB13" s="19"/>
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="20"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE13" s="20"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2114,7 +2103,7 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-      <c r="W14" s="27"/>
+      <c r="W14" s="16"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
@@ -2122,10 +2111,9 @@
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="17"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE14" s="17"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -2148,7 +2136,7 @@
       <c r="T15" s="19"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
-      <c r="W15" s="27"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
@@ -2156,10 +2144,9 @@
       <c r="AB15" s="19"/>
       <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="20"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE15" s="20"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -2182,7 +2169,7 @@
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
-      <c r="W16" s="27"/>
+      <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
@@ -2190,10 +2177,9 @@
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="17"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE16" s="17"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -2216,7 +2202,7 @@
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
-      <c r="W17" s="27"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
@@ -2224,10 +2210,9 @@
       <c r="AB17" s="19"/>
       <c r="AC17" s="19"/>
       <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="20"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE17" s="20"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2250,7 +2235,7 @@
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
-      <c r="W18" s="27"/>
+      <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
@@ -2258,10 +2243,9 @@
       <c r="AB18" s="16"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="17"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE18" s="17"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -2284,7 +2268,7 @@
       <c r="T19" s="19"/>
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
-      <c r="W19" s="27"/>
+      <c r="W19" s="19"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
@@ -2292,10 +2276,9 @@
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="20"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE19" s="20"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2318,7 +2301,7 @@
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
-      <c r="W20" s="27"/>
+      <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
@@ -2326,10 +2309,9 @@
       <c r="AB20" s="16"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="17"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE20" s="17"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2352,7 +2334,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="28"/>
+      <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -2360,8 +2342,7 @@
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="11"/>
+      <c r="AE21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2372,7 +2353,7 @@
           <x14:formula1>
             <xm:f>'Formulas&amp;Tables'!$G$4:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H21 Q2:Q21 T2:T21 X2:X21 AA2:AA21 AD2:AD21</xm:sqref>
+          <xm:sqref>H2:H21 Q2:Q21 T2:T21 W2:W21 Z2:Z21 AC2:AC21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2394,52 +2375,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
